--- a/CourseProposal/json_output/summary_dataframe.xlsx
+++ b/CourseProposal/json_output/summary_dataframe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>LU#</t>
   </si>
@@ -119,34 +119,28 @@
     <t>- T6: Privacy, Security and Administration</t>
   </si>
   <si>
-    <t>- Classroom (Classroom Facilitated Training: 22)
-- Didactic Questioning (Classroom Facilitated Training: 22)
-- Demonstration (Classroom Facilitated Training: 22)
-- Practical (Classroom Facilitated Training: 75)</t>
-  </si>
-  <si>
-    <t>- Classroom (Classroom Facilitated Training: 22)
-- Didactic Questioning (Classroom Facilitated Training: 22)
-- Demonstration (Classroom Facilitated Training: 21)
-- Practical (Classroom Facilitated Training: 74)</t>
-  </si>
-  <si>
-    <t>- Classroom (Classroom Facilitated Training: 21)
-- Didactic Questioning (Classroom Facilitated Training: 21)
-- Demonstration (Classroom Facilitated Training: 21)
-- Practical (Classroom Facilitated Training: 74)</t>
-  </si>
-  <si>
-    <t>- Practical Exam (1:20, 10)
+    <t>- Classroom (Classroom Facilitated Training: 20)
+- Didactic Questioning (Classroom Facilitated Training: 20)
+- Demonstration (Classroom Facilitated Training: 20)
+- Practical (Classroom Facilitated Training: 70)</t>
+  </si>
+  <si>
+    <t>- Classroom (Classroom Facilitated Training: 25)
+- Didactic Questioning (Classroom Facilitated Training: 25)
+- Demonstration (Classroom Facilitated Training: 25)
+- Practical (Classroom Facilitated Training: 70)</t>
+  </si>
+  <si>
+    <t>- Practical Exam (1:20, 5)
+- Practical Exam (1:20, 5)</t>
+  </si>
+  <si>
+    <t>- Written Exam (1:20, 10)
 - Practical Exam (1:20, 10)</t>
   </si>
   <si>
-    <t>- Written Exam (1:20, 15)
-- Practical Exam (1:20, 10)</t>
-  </si>
-  <si>
-    <t>- Written Exam (1:20, 15)
-- Written Exam (1:20, 15)
+    <t>- Written Exam (1:20, 10)
+- Written Exam (1:20, 10)
 - Practical Exam (1:20, 10)
 - Practical Exam (1:20, 10)</t>
   </si>
@@ -558,13 +552,13 @@
         <v>32</v>
       </c>
       <c r="F2">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -584,13 +578,13 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -607,16 +601,16 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -633,16 +627,16 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -662,13 +656,13 @@
         <v>33</v>
       </c>
       <c r="F6">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -685,13 +679,13 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>10</v>
